--- a/inst/extdata/examples/xlsx/histogram.xlsx
+++ b/inst/extdata/examples/xlsx/histogram.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">footnote</t>
   </si>
   <si>
-    <t xml:space="preserve">µ = 0, σ = 1</t>
+    <t xml:space="preserve">mu = 0, sigma = 1</t>
   </si>
   <si>
     <t xml:space="preserve">random vector</t>
